--- a/data/plasmaMetaboAnalyst_PathwayAnalysis.xlsx
+++ b/data/plasmaMetaboAnalyst_PathwayAnalysis.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epb5360/git/mice-metab/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/epb5360_psu_edu/Documents/Research/git/mice-metab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71F7872E-5CFA-C84F-BB26-29E591B53A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{71F7872E-5CFA-C84F-BB26-29E591B53A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3DF9BE4-8AD3-164B-96AB-12279E333790}"/>
   <bookViews>
-    <workbookView xWindow="-29180" yWindow="1800" windowWidth="27640" windowHeight="16940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXERvsSEDALD35" sheetId="1" r:id="rId1"/>
     <sheet name="SEDERvsSEDAL" sheetId="2" r:id="rId2"/>
     <sheet name="EXALvsSEDAL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -332,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +522,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -673,8 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,28 +1083,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.1345000000000001E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>6.7816000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>5.6723000000000003E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>5.6723000000000003E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2371,10 +2388,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3713,10 +3730,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
